--- a/INTLINE/data/566/BSP/A.1.bop6 PHILIPPINES BALANCE OF PAYMENTS_historical.xlsx
+++ b/INTLINE/data/566/BSP/A.1.bop6 PHILIPPINES BALANCE OF PAYMENTS_historical.xlsx
@@ -3322,9 +3322,15 @@
       <c r="OG2" t="n">
         <v>-2045.891991770191</v>
       </c>
-      <c r="OH2" t="inlineStr"/>
-      <c r="OI2" t="inlineStr"/>
-      <c r="OJ2" t="inlineStr"/>
+      <c r="OH2" t="n">
+        <v>-1551.258617847483</v>
+      </c>
+      <c r="OI2" t="n">
+        <v>-815.410869734711</v>
+      </c>
+      <c r="OJ2" t="n">
+        <v>-2441.56327393705</v>
+      </c>
       <c r="OK2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -4281,9 +4287,15 @@
       <c r="OG3" t="n">
         <v>-5061.753511684727</v>
       </c>
-      <c r="OH3" t="inlineStr"/>
-      <c r="OI3" t="inlineStr"/>
-      <c r="OJ3" t="inlineStr"/>
+      <c r="OH3" t="n">
+        <v>-4351.985847641924</v>
+      </c>
+      <c r="OI3" t="n">
+        <v>-3698.030243820052</v>
+      </c>
+      <c r="OJ3" t="n">
+        <v>-5107.300942811737</v>
+      </c>
       <c r="OK3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -5096,9 +5108,15 @@
       <c r="OG4" t="n">
         <v>7676.342812911174</v>
       </c>
-      <c r="OH4" t="inlineStr"/>
-      <c r="OI4" t="inlineStr"/>
-      <c r="OJ4" t="inlineStr"/>
+      <c r="OH4" t="n">
+        <v>7310.786822025676</v>
+      </c>
+      <c r="OI4" t="n">
+        <v>7483.282685464779</v>
+      </c>
+      <c r="OJ4" t="n">
+        <v>8321.666586824553</v>
+      </c>
       <c r="OK4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -5911,9 +5929,15 @@
       <c r="OG5" t="n">
         <v>12738.0963245959</v>
       </c>
-      <c r="OH5" t="inlineStr"/>
-      <c r="OI5" t="inlineStr"/>
-      <c r="OJ5" t="inlineStr"/>
+      <c r="OH5" t="n">
+        <v>11662.7726696676</v>
+      </c>
+      <c r="OI5" t="n">
+        <v>11181.31292928483</v>
+      </c>
+      <c r="OJ5" t="n">
+        <v>13428.96752963629</v>
+      </c>
       <c r="OK5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -6726,9 +6750,15 @@
       <c r="OG6" t="n">
         <v>-6196.311073476394</v>
       </c>
-      <c r="OH6" t="inlineStr"/>
-      <c r="OI6" t="inlineStr"/>
-      <c r="OJ6" t="inlineStr"/>
+      <c r="OH6" t="n">
+        <v>-5398.763153397837</v>
+      </c>
+      <c r="OI6" t="n">
+        <v>-4925.457557912163</v>
+      </c>
+      <c r="OJ6" t="n">
+        <v>-6028.550922169084</v>
+      </c>
       <c r="OK6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -7541,9 +7571,15 @@
       <c r="OG7" t="n">
         <v>4501.902398235216</v>
       </c>
-      <c r="OH7" t="inlineStr"/>
-      <c r="OI7" t="inlineStr"/>
-      <c r="OJ7" t="inlineStr"/>
+      <c r="OH7" t="n">
+        <v>4472.625691336241</v>
+      </c>
+      <c r="OI7" t="n">
+        <v>4633.456270145816</v>
+      </c>
+      <c r="OJ7" t="n">
+        <v>5344.106160432314</v>
+      </c>
       <c r="OK7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -8356,9 +8392,15 @@
       <c r="OG8" t="n">
         <v>10698.21347171161</v>
       </c>
-      <c r="OH8" t="inlineStr"/>
-      <c r="OI8" t="inlineStr"/>
-      <c r="OJ8" t="inlineStr"/>
+      <c r="OH8" t="n">
+        <v>9871.388844734078</v>
+      </c>
+      <c r="OI8" t="n">
+        <v>9558.913828057979</v>
+      </c>
+      <c r="OJ8" t="n">
+        <v>11372.6570826014</v>
+      </c>
       <c r="OK8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -9171,9 +9213,15 @@
       <c r="OG9" t="n">
         <v>1134.557561791667</v>
       </c>
-      <c r="OH9" t="inlineStr"/>
-      <c r="OI9" t="inlineStr"/>
-      <c r="OJ9" t="inlineStr"/>
+      <c r="OH9" t="n">
+        <v>1046.777305755913</v>
+      </c>
+      <c r="OI9" t="n">
+        <v>1227.427314092112</v>
+      </c>
+      <c r="OJ9" t="n">
+        <v>921.2499793573475</v>
+      </c>
       <c r="OK9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -9986,9 +10034,15 @@
       <c r="OG10" t="n">
         <v>3174.440414675958</v>
       </c>
-      <c r="OH10" t="inlineStr"/>
-      <c r="OI10" t="inlineStr"/>
-      <c r="OJ10" t="inlineStr"/>
+      <c r="OH10" t="n">
+        <v>2838.161130689435</v>
+      </c>
+      <c r="OI10" t="n">
+        <v>2849.826415318963</v>
+      </c>
+      <c r="OJ10" t="n">
+        <v>2977.560426392239</v>
+      </c>
       <c r="OK10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -10801,9 +10855,15 @@
       <c r="OG11" t="n">
         <v>2039.882852884291</v>
       </c>
-      <c r="OH11" t="inlineStr"/>
-      <c r="OI11" t="inlineStr"/>
-      <c r="OJ11" t="inlineStr"/>
+      <c r="OH11" t="n">
+        <v>1791.383824933522</v>
+      </c>
+      <c r="OI11" t="n">
+        <v>1622.399101226852</v>
+      </c>
+      <c r="OJ11" t="n">
+        <v>2056.310447034891</v>
+      </c>
       <c r="OK11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -11760,9 +11820,15 @@
       <c r="OG12" t="n">
         <v>198.2452352136964</v>
       </c>
-      <c r="OH12" t="inlineStr"/>
-      <c r="OI12" t="inlineStr"/>
-      <c r="OJ12" t="inlineStr"/>
+      <c r="OH12" t="n">
+        <v>335.4607306191582</v>
+      </c>
+      <c r="OI12" t="n">
+        <v>538.424651729172</v>
+      </c>
+      <c r="OJ12" t="n">
+        <v>276.710647028299</v>
+      </c>
       <c r="OK12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -12575,9 +12641,15 @@
       <c r="OG13" t="n">
         <v>1113.796573699982</v>
       </c>
-      <c r="OH13" t="inlineStr"/>
-      <c r="OI13" t="inlineStr"/>
-      <c r="OJ13" t="inlineStr"/>
+      <c r="OH13" t="n">
+        <v>976.5599108835252</v>
+      </c>
+      <c r="OI13" t="n">
+        <v>882.7155835962031</v>
+      </c>
+      <c r="OJ13" t="n">
+        <v>1099.429135830504</v>
+      </c>
       <c r="OK13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -13390,9 +13462,15 @@
       <c r="OG14" t="n">
         <v>915.5513384862855</v>
       </c>
-      <c r="OH14" t="inlineStr"/>
-      <c r="OI14" t="inlineStr"/>
-      <c r="OJ14" t="inlineStr"/>
+      <c r="OH14" t="n">
+        <v>641.099180264367</v>
+      </c>
+      <c r="OI14" t="n">
+        <v>344.2909318670312</v>
+      </c>
+      <c r="OJ14" t="n">
+        <v>822.7184888022055</v>
+      </c>
       <c r="OK14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -14349,9 +14427,15 @@
       <c r="OG15" t="n">
         <v>2817.61628470084</v>
       </c>
-      <c r="OH15" t="inlineStr"/>
-      <c r="OI15" t="inlineStr"/>
-      <c r="OJ15" t="inlineStr"/>
+      <c r="OH15" t="n">
+        <v>2465.266499175284</v>
+      </c>
+      <c r="OI15" t="n">
+        <v>2344.194722356167</v>
+      </c>
+      <c r="OJ15" t="n">
+        <v>2389.027021846389</v>
+      </c>
       <c r="OK15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -15164,9 +15248,15 @@
       <c r="OG16" t="n">
         <v>2901.822193622582</v>
       </c>
-      <c r="OH16" t="inlineStr"/>
-      <c r="OI16" t="inlineStr"/>
-      <c r="OJ16" t="inlineStr"/>
+      <c r="OH16" t="n">
+        <v>2539.040307599564</v>
+      </c>
+      <c r="OI16" t="n">
+        <v>2404.345995474318</v>
+      </c>
+      <c r="OJ16" t="n">
+        <v>2469.406016631071</v>
+      </c>
       <c r="OK16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -15979,9 +16069,15 @@
       <c r="OG17" t="n">
         <v>84.20590892174124</v>
       </c>
-      <c r="OH17" t="inlineStr"/>
-      <c r="OI17" t="inlineStr"/>
-      <c r="OJ17" t="inlineStr"/>
+      <c r="OH17" t="n">
+        <v>73.77380842428059</v>
+      </c>
+      <c r="OI17" t="n">
+        <v>60.15127311815101</v>
+      </c>
+      <c r="OJ17" t="n">
+        <v>80.37899478468154</v>
+      </c>
       <c r="OK17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -16938,9 +17034,15 @@
       <c r="OG18" t="n">
         <v>6.80909552619964</v>
       </c>
-      <c r="OH18" t="inlineStr"/>
-      <c r="OI18" t="inlineStr"/>
-      <c r="OJ18" t="inlineStr"/>
+      <c r="OH18" t="n">
+        <v>5.441234950352843</v>
+      </c>
+      <c r="OI18" t="n">
+        <v>7.991255047469515</v>
+      </c>
+      <c r="OJ18" t="n">
+        <v>-33.35683436229994</v>
+      </c>
       <c r="OK18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -17753,9 +17855,15 @@
       <c r="OG19" t="n">
         <v>8.306626326199639</v>
       </c>
-      <c r="OH19" t="inlineStr"/>
-      <c r="OI19" t="inlineStr"/>
-      <c r="OJ19" t="inlineStr"/>
+      <c r="OH19" t="n">
+        <v>8.861757150352844</v>
+      </c>
+      <c r="OI19" t="n">
+        <v>9.402842767469515</v>
+      </c>
+      <c r="OJ19" t="n">
+        <v>8.206669027700068</v>
+      </c>
       <c r="OK19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -18568,9 +18676,15 @@
       <c r="OG20" t="n">
         <v>1.4975308</v>
       </c>
-      <c r="OH20" t="inlineStr"/>
-      <c r="OI20" t="inlineStr"/>
-      <c r="OJ20" t="inlineStr"/>
+      <c r="OH20" t="n">
+        <v>3.420522200000001</v>
+      </c>
+      <c r="OI20" t="n">
+        <v>1.41158772</v>
+      </c>
+      <c r="OJ20" t="n">
+        <v>41.56350339000001</v>
+      </c>
       <c r="OK20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -19527,9 +19641,15 @@
       <c r="OG21" t="n">
         <v>-3079.010522421448</v>
       </c>
-      <c r="OH21" t="inlineStr"/>
-      <c r="OI21" t="inlineStr"/>
-      <c r="OJ21" t="inlineStr"/>
+      <c r="OH21" t="n">
+        <v>-2854.308859617539</v>
+      </c>
+      <c r="OI21" t="n">
+        <v>340.9920218627949</v>
+      </c>
+      <c r="OJ21" t="n">
+        <v>-2431.072467294582</v>
+      </c>
       <c r="OK21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -20486,9 +20606,15 @@
       <c r="OG22" t="n">
         <v>-563.6128927312747</v>
       </c>
-      <c r="OH22" t="inlineStr"/>
-      <c r="OI22" t="inlineStr"/>
-      <c r="OJ22" t="inlineStr"/>
+      <c r="OH22" t="n">
+        <v>-695.8894512431967</v>
+      </c>
+      <c r="OI22" t="n">
+        <v>-493.4056905804611</v>
+      </c>
+      <c r="OJ22" t="n">
+        <v>-202.065606329729</v>
+      </c>
       <c r="OK22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -21301,9 +21427,15 @@
       <c r="OG23" t="n">
         <v>502.5136658517132</v>
       </c>
-      <c r="OH23" t="inlineStr"/>
-      <c r="OI23" t="inlineStr"/>
-      <c r="OJ23" t="inlineStr"/>
+      <c r="OH23" t="n">
+        <v>122.6337714651682</v>
+      </c>
+      <c r="OI23" t="n">
+        <v>399.6926479774955</v>
+      </c>
+      <c r="OJ23" t="n">
+        <v>525.3313679209002</v>
+      </c>
       <c r="OK23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -22116,9 +22248,15 @@
       <c r="OG24" t="n">
         <v>1066.126558582988</v>
       </c>
-      <c r="OH24" t="inlineStr"/>
-      <c r="OI24" t="inlineStr"/>
-      <c r="OJ24" t="inlineStr"/>
+      <c r="OH24" t="n">
+        <v>818.5232227083649</v>
+      </c>
+      <c r="OI24" t="n">
+        <v>893.0983385579566</v>
+      </c>
+      <c r="OJ24" t="n">
+        <v>727.3969742506292</v>
+      </c>
       <c r="OK24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -23076,13 +23214,13 @@
         <v>991.1551033400209</v>
       </c>
       <c r="OH25" t="n">
-        <v>-102.030589409971</v>
+        <v>-102.0305894099968</v>
       </c>
       <c r="OI25" t="n">
-        <v>-156.78619067002</v>
+        <v>-156.7861906700018</v>
       </c>
       <c r="OJ25" t="n">
-        <v>753.739113769991</v>
+        <v>753.7391137700104</v>
       </c>
       <c r="OK25" t="inlineStr"/>
     </row>
@@ -24281,13 +24419,13 @@
         <v>2987.114530544011</v>
       </c>
       <c r="OH26" t="n">
-        <v>2668.183701184</v>
+        <v>2668.183701183999</v>
       </c>
       <c r="OI26" t="n">
-        <v>2508.601255754</v>
+        <v>2508.601255753995</v>
       </c>
       <c r="OJ26" t="n">
-        <v>2594.39819019101</v>
+        <v>2594.398190191015</v>
       </c>
       <c r="OK26" t="inlineStr"/>
     </row>
